--- a/Code/Results/Cases/Case_0_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_204/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.841157821528098</v>
+        <v>1.069761271434882</v>
       </c>
       <c r="D2">
-        <v>0.858302981156156</v>
+        <v>1.067785388946211</v>
       </c>
       <c r="E2">
-        <v>0.8657557195464363</v>
+        <v>1.073269561572123</v>
       </c>
       <c r="F2">
-        <v>0.862143049772922</v>
+        <v>1.082819363328977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8694071624540752</v>
+        <v>1.07469435766929</v>
       </c>
       <c r="K2">
-        <v>0.872166683773454</v>
+        <v>1.070492320365496</v>
       </c>
       <c r="L2">
-        <v>0.8794671332686439</v>
+        <v>1.075961869338507</v>
       </c>
       <c r="M2">
-        <v>0.8759278510728064</v>
+        <v>1.085486588178515</v>
       </c>
       <c r="N2">
-        <v>0.8706418203471553</v>
+        <v>1.076220546926347</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8823592107182986</v>
+        <v>1.073784900911161</v>
       </c>
       <c r="D3">
-        <v>0.8960278820645105</v>
+        <v>1.071509064804204</v>
       </c>
       <c r="E3">
-        <v>0.9031115166354563</v>
+        <v>1.076957498081294</v>
       </c>
       <c r="F3">
-        <v>0.9017884205501553</v>
+        <v>1.08677103995097</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9066661549396492</v>
+        <v>1.078360888699483</v>
       </c>
       <c r="K3">
-        <v>0.9081900234271603</v>
+        <v>1.074024634390174</v>
       </c>
       <c r="L3">
-        <v>0.9151550870259143</v>
+        <v>1.079459663349572</v>
       </c>
       <c r="M3">
-        <v>0.9138539556731301</v>
+        <v>1.089249426160168</v>
       </c>
       <c r="N3">
-        <v>0.9079537248757249</v>
+        <v>1.079892284851159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9043742790968132</v>
+        <v>1.076362090783612</v>
       </c>
       <c r="D4">
-        <v>0.9162246006762941</v>
+        <v>1.07389328218832</v>
       </c>
       <c r="E4">
-        <v>0.9231166991317469</v>
+        <v>1.079318663033244</v>
       </c>
       <c r="F4">
-        <v>0.9230220240667691</v>
+        <v>1.089302230544027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9265864589071052</v>
+        <v>1.080707745567634</v>
       </c>
       <c r="K4">
-        <v>0.9274516227700096</v>
+        <v>1.076285050242309</v>
       </c>
       <c r="L4">
-        <v>0.9342410559940423</v>
+        <v>1.081697799192504</v>
       </c>
       <c r="M4">
-        <v>0.9341477780222517</v>
+        <v>1.091658474222222</v>
       </c>
       <c r="N4">
-        <v>0.9279023179597058</v>
+        <v>1.082242474525251</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9128696078399913</v>
+        <v>1.07743944674907</v>
       </c>
       <c r="D5">
-        <v>0.9240240542182504</v>
+        <v>1.074889764089809</v>
       </c>
       <c r="E5">
-        <v>0.9308430664535859</v>
+        <v>1.080305469383535</v>
       </c>
       <c r="F5">
-        <v>0.9312241168527969</v>
+        <v>1.09036037608612</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.934273850506345</v>
+        <v>1.081688428980049</v>
       </c>
       <c r="K5">
-        <v>0.9348847302488317</v>
+        <v>1.077229484796222</v>
       </c>
       <c r="L5">
-        <v>0.9416068616637314</v>
+        <v>1.082632879130794</v>
       </c>
       <c r="M5">
-        <v>0.9419825511885872</v>
+        <v>1.092665275982179</v>
       </c>
       <c r="N5">
-        <v>0.9356006265367727</v>
+        <v>1.083224550620597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9142580042430337</v>
+        <v>1.077619988369249</v>
       </c>
       <c r="D6">
-        <v>0.9252989954957955</v>
+        <v>1.075056740895711</v>
       </c>
       <c r="E6">
-        <v>0.9321061013801097</v>
+        <v>1.080470822488937</v>
       </c>
       <c r="F6">
-        <v>0.932565008777556</v>
+        <v>1.090537699503248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9355301831373171</v>
+        <v>1.081852747741762</v>
       </c>
       <c r="K6">
-        <v>0.9360994902787312</v>
+        <v>1.0773877223674</v>
       </c>
       <c r="L6">
-        <v>0.9428106428285252</v>
+        <v>1.082789546670649</v>
       </c>
       <c r="M6">
-        <v>0.943263145059435</v>
+        <v>1.092833978650146</v>
       </c>
       <c r="N6">
-        <v>0.9368587433041837</v>
+        <v>1.0833891027338</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9044904661855659</v>
+        <v>1.076376510130171</v>
       </c>
       <c r="D7">
-        <v>0.9163312504991578</v>
+        <v>1.073906619924005</v>
       </c>
       <c r="E7">
-        <v>0.9232223465564596</v>
+        <v>1.079331871424508</v>
       </c>
       <c r="F7">
-        <v>0.9231341704937918</v>
+        <v>1.089316392706307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.92669159678447</v>
+        <v>1.080720872565408</v>
       </c>
       <c r="K7">
-        <v>0.9275532837466339</v>
+        <v>1.076297692531983</v>
       </c>
       <c r="L7">
-        <v>0.9343417949687047</v>
+        <v>1.081710316440782</v>
       </c>
       <c r="M7">
-        <v>0.9342549192579397</v>
+        <v>1.091671950315746</v>
       </c>
       <c r="N7">
-        <v>0.928007605144916</v>
+        <v>1.082255620164867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8563484850821151</v>
+        <v>1.071126668725626</v>
       </c>
       <c r="D8">
-        <v>0.8721991855410733</v>
+        <v>1.069049174327533</v>
       </c>
       <c r="E8">
-        <v>0.8795139826966577</v>
+        <v>1.074521252353222</v>
       </c>
       <c r="F8">
-        <v>0.8767447633558794</v>
+        <v>1.084160324290596</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8831391596228602</v>
+        <v>1.075938910077688</v>
       </c>
       <c r="K8">
-        <v>0.8854422872492078</v>
+        <v>1.071691425488777</v>
       </c>
       <c r="L8">
-        <v>0.8926178700018209</v>
+        <v>1.077149295479844</v>
       </c>
       <c r="M8">
-        <v>0.8899009968551364</v>
+        <v>1.086763716044525</v>
       </c>
       <c r="N8">
-        <v>0.8843933185270022</v>
+        <v>1.077466866741916</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8563484850821151</v>
+        <v>1.061663718938187</v>
       </c>
       <c r="D9">
-        <v>0.8721991855410733</v>
+        <v>1.060286977572874</v>
       </c>
       <c r="E9">
-        <v>0.8795139826966577</v>
+        <v>1.065842217899969</v>
       </c>
       <c r="F9">
-        <v>0.8767447633558794</v>
+        <v>1.074867182822569</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8831391596228602</v>
+        <v>1.067306791918153</v>
       </c>
       <c r="K9">
-        <v>0.8854422872492078</v>
+        <v>1.063372311689238</v>
       </c>
       <c r="L9">
-        <v>0.8926178700018209</v>
+        <v>1.068910423956395</v>
       </c>
       <c r="M9">
-        <v>0.8899009968551364</v>
+        <v>1.077907974389677</v>
       </c>
       <c r="N9">
-        <v>0.8843933185270022</v>
+        <v>1.068822489984478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8563484850821151</v>
+        <v>1.05519785427093</v>
       </c>
       <c r="D10">
-        <v>0.8721991855410733</v>
+        <v>1.054295611293698</v>
       </c>
       <c r="E10">
-        <v>0.8795139826966577</v>
+        <v>1.059906854158195</v>
       </c>
       <c r="F10">
-        <v>0.8767447633558794</v>
+        <v>1.068518011982954</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8831391596228602</v>
+        <v>1.061400184710705</v>
       </c>
       <c r="K10">
-        <v>0.8854422872492078</v>
+        <v>1.057677090588838</v>
       </c>
       <c r="L10">
-        <v>0.8926178700018209</v>
+        <v>1.063269155963709</v>
       </c>
       <c r="M10">
-        <v>0.8899009968551364</v>
+        <v>1.07185131371572</v>
       </c>
       <c r="N10">
-        <v>0.8843933185270022</v>
+        <v>1.062907494717297</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8563484850821151</v>
+        <v>1.052357348190431</v>
       </c>
       <c r="D11">
-        <v>0.8721991855410733</v>
+        <v>1.051662558193424</v>
       </c>
       <c r="E11">
-        <v>0.8795139826966577</v>
+        <v>1.057298213136341</v>
       </c>
       <c r="F11">
-        <v>0.8767447633558794</v>
+        <v>1.065728960723681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8831391596228602</v>
+        <v>1.058803370737038</v>
       </c>
       <c r="K11">
-        <v>0.8854422872492078</v>
+        <v>1.055172552928916</v>
       </c>
       <c r="L11">
-        <v>0.8926178700018209</v>
+        <v>1.060788115781958</v>
       </c>
       <c r="M11">
-        <v>0.8899009968551364</v>
+        <v>1.069189243321587</v>
       </c>
       <c r="N11">
-        <v>0.8843933185270022</v>
+        <v>1.060306992969929</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8563484850821151</v>
+        <v>1.051295830715829</v>
       </c>
       <c r="D12">
-        <v>0.8721991855410733</v>
+        <v>1.050678419744675</v>
       </c>
       <c r="E12">
-        <v>0.8795139826966577</v>
+        <v>1.05632316946924</v>
       </c>
       <c r="F12">
-        <v>0.8767447633558794</v>
+        <v>1.064686703683364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8831391596228602</v>
+        <v>1.057832623876866</v>
       </c>
       <c r="K12">
-        <v>0.8854422872492078</v>
+        <v>1.054236202368447</v>
       </c>
       <c r="L12">
-        <v>0.8926178700018209</v>
+        <v>1.059860515943885</v>
       </c>
       <c r="M12">
-        <v>0.8899009968551364</v>
+        <v>1.068194210348589</v>
       </c>
       <c r="N12">
-        <v>0.8843933185270022</v>
+        <v>1.05933486753787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8563484850821151</v>
+        <v>1.051523825717757</v>
       </c>
       <c r="D13">
-        <v>0.8721991855410733</v>
+        <v>1.050889801750513</v>
       </c>
       <c r="E13">
-        <v>0.8795139826966577</v>
+        <v>1.056532599346114</v>
       </c>
       <c r="F13">
-        <v>0.8767447633558794</v>
+        <v>1.064910560422093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8831391596228602</v>
+        <v>1.058041136471595</v>
       </c>
       <c r="K13">
-        <v>0.8854422872492078</v>
+        <v>1.054437331228016</v>
       </c>
       <c r="L13">
-        <v>0.8926178700018209</v>
+        <v>1.060059766676769</v>
       </c>
       <c r="M13">
-        <v>0.8899009968551364</v>
+        <v>1.068407934598043</v>
       </c>
       <c r="N13">
-        <v>0.8843933185270022</v>
+        <v>1.059543676244399</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8563484850821151</v>
+        <v>1.052269735750746</v>
       </c>
       <c r="D14">
-        <v>0.8721991855410733</v>
+        <v>1.05158133523092</v>
       </c>
       <c r="E14">
-        <v>0.8795139826966577</v>
+        <v>1.057217741383966</v>
       </c>
       <c r="F14">
-        <v>0.8767447633558794</v>
+        <v>1.06564293728982</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8831391596228602</v>
+        <v>1.058723256138749</v>
       </c>
       <c r="K14">
-        <v>0.8854422872492078</v>
+        <v>1.055095279023089</v>
       </c>
       <c r="L14">
-        <v>0.8926178700018209</v>
+        <v>1.06071156473617</v>
       </c>
       <c r="M14">
-        <v>0.8899009968551364</v>
+        <v>1.069107122210939</v>
       </c>
       <c r="N14">
-        <v>0.8843933185270022</v>
+        <v>1.060226764599721</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8563484850821151</v>
+        <v>1.052728454518375</v>
       </c>
       <c r="D15">
-        <v>0.8721991855410733</v>
+        <v>1.052006594134751</v>
       </c>
       <c r="E15">
-        <v>0.8795139826966577</v>
+        <v>1.057639065973708</v>
       </c>
       <c r="F15">
-        <v>0.8767447633558794</v>
+        <v>1.066093337684767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8831391596228602</v>
+        <v>1.05914270571262</v>
       </c>
       <c r="K15">
-        <v>0.8854422872492078</v>
+        <v>1.055499851784162</v>
       </c>
       <c r="L15">
-        <v>0.8926178700018209</v>
+        <v>1.061112351524428</v>
       </c>
       <c r="M15">
-        <v>0.8899009968551364</v>
+        <v>1.069537081545365</v>
       </c>
       <c r="N15">
-        <v>0.8843933185270022</v>
+        <v>1.060646809840099</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8563484850821151</v>
+        <v>1.055385485092562</v>
       </c>
       <c r="D16">
-        <v>0.8721991855410733</v>
+        <v>1.054469518008764</v>
       </c>
       <c r="E16">
-        <v>0.8795139826966577</v>
+        <v>1.060079144370747</v>
       </c>
       <c r="F16">
-        <v>0.8767447633558794</v>
+        <v>1.06870224815731</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8831391596228602</v>
+        <v>1.061571676634513</v>
       </c>
       <c r="K16">
-        <v>0.8854422872492078</v>
+        <v>1.057842474877156</v>
       </c>
       <c r="L16">
-        <v>0.8926178700018209</v>
+        <v>1.063432983854576</v>
       </c>
       <c r="M16">
-        <v>0.8899009968551364</v>
+        <v>1.072027130160851</v>
       </c>
       <c r="N16">
-        <v>0.8843933185270022</v>
+        <v>1.063079230179307</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8563484850821151</v>
+        <v>1.057041050305958</v>
       </c>
       <c r="D17">
-        <v>0.8721991855410733</v>
+        <v>1.056003874084444</v>
       </c>
       <c r="E17">
-        <v>0.8795139826966577</v>
+        <v>1.061599215428059</v>
       </c>
       <c r="F17">
-        <v>0.8767447633558794</v>
+        <v>1.070327882768646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8831391596228602</v>
+        <v>1.063084611336228</v>
       </c>
       <c r="K17">
-        <v>0.8854422872492078</v>
+        <v>1.059301451397464</v>
       </c>
       <c r="L17">
-        <v>0.8926178700018209</v>
+        <v>1.064878204044377</v>
       </c>
       <c r="M17">
-        <v>0.8899009968551364</v>
+        <v>1.073578298551096</v>
       </c>
       <c r="N17">
-        <v>0.8843933185270022</v>
+        <v>1.064594313421834</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8563484850821151</v>
+        <v>1.058002803626233</v>
       </c>
       <c r="D18">
-        <v>0.8721991855410733</v>
+        <v>1.056895118798757</v>
       </c>
       <c r="E18">
-        <v>0.8795139826966577</v>
+        <v>1.062482143439307</v>
       </c>
       <c r="F18">
-        <v>0.8767447633558794</v>
+        <v>1.071272266771258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8831391596228602</v>
+        <v>1.063963316726029</v>
       </c>
       <c r="K18">
-        <v>0.8854422872492078</v>
+        <v>1.060148755128849</v>
       </c>
       <c r="L18">
-        <v>0.8926178700018209</v>
+        <v>1.065717496842224</v>
       </c>
       <c r="M18">
-        <v>0.8899009968551364</v>
+        <v>1.074479278086787</v>
       </c>
       <c r="N18">
-        <v>0.8843933185270022</v>
+        <v>1.065474266674078</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8563484850821151</v>
+        <v>1.058330082532018</v>
       </c>
       <c r="D19">
-        <v>0.8721991855410733</v>
+        <v>1.057198387761434</v>
       </c>
       <c r="E19">
-        <v>0.8795139826966577</v>
+        <v>1.062782579173821</v>
       </c>
       <c r="F19">
-        <v>0.8767447633558794</v>
+        <v>1.07159363797398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8831391596228602</v>
+        <v>1.064262302532386</v>
       </c>
       <c r="K19">
-        <v>0.8854422872492078</v>
+        <v>1.060437045600964</v>
       </c>
       <c r="L19">
-        <v>0.8926178700018209</v>
+        <v>1.066003057911242</v>
       </c>
       <c r="M19">
-        <v>0.8899009968551364</v>
+        <v>1.074785854370917</v>
       </c>
       <c r="N19">
-        <v>0.8843933185270022</v>
+        <v>1.065773677074574</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8563484850821151</v>
+        <v>1.056863830407798</v>
       </c>
       <c r="D20">
-        <v>0.8721991855410733</v>
+        <v>1.055839638902445</v>
       </c>
       <c r="E20">
-        <v>0.8795139826966577</v>
+        <v>1.061436511270897</v>
       </c>
       <c r="F20">
-        <v>0.8767447633558794</v>
+        <v>1.070153864904629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8831391596228602</v>
+        <v>1.062922679076663</v>
       </c>
       <c r="K20">
-        <v>0.8854422872492078</v>
+        <v>1.059145300908941</v>
       </c>
       <c r="L20">
-        <v>0.8926178700018209</v>
+        <v>1.064723528128731</v>
       </c>
       <c r="M20">
-        <v>0.8899009968551364</v>
+        <v>1.073412266995192</v>
       </c>
       <c r="N20">
-        <v>0.8843933185270022</v>
+        <v>1.064432151199888</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8563484850821151</v>
+        <v>1.052050263780349</v>
       </c>
       <c r="D21">
-        <v>0.8721991855410733</v>
+        <v>1.051377866732292</v>
       </c>
       <c r="E21">
-        <v>0.8795139826966577</v>
+        <v>1.057016154237538</v>
       </c>
       <c r="F21">
-        <v>0.8767447633558794</v>
+        <v>1.065427446346162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8831391596228602</v>
+        <v>1.058522561683257</v>
       </c>
       <c r="K21">
-        <v>0.8854422872492078</v>
+        <v>1.054901699174301</v>
       </c>
       <c r="L21">
-        <v>0.8926178700018209</v>
+        <v>1.060519795184712</v>
       </c>
       <c r="M21">
-        <v>0.8899009968551364</v>
+        <v>1.068901403005153</v>
       </c>
       <c r="N21">
-        <v>0.8843933185270022</v>
+        <v>1.060025785135082</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8563484850821151</v>
+        <v>1.048986436919784</v>
       </c>
       <c r="D22">
-        <v>0.8721991855410733</v>
+        <v>1.048537100465998</v>
       </c>
       <c r="E22">
-        <v>0.8795139826966577</v>
+        <v>1.054201585194992</v>
       </c>
       <c r="F22">
-        <v>0.8767447633558794</v>
+        <v>1.062419272844666</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8831391596228602</v>
+        <v>1.055720159730902</v>
       </c>
       <c r="K22">
-        <v>0.8854422872492078</v>
+        <v>1.052198408252214</v>
       </c>
       <c r="L22">
-        <v>0.8926178700018209</v>
+        <v>1.057841704016116</v>
       </c>
       <c r="M22">
-        <v>0.8899009968551364</v>
+        <v>1.066029096097795</v>
       </c>
       <c r="N22">
-        <v>0.8843933185270022</v>
+        <v>1.057219403450515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8563484850821151</v>
+        <v>1.050614275254111</v>
       </c>
       <c r="D23">
-        <v>0.8721991855410733</v>
+        <v>1.05004650479813</v>
       </c>
       <c r="E23">
-        <v>0.8795139826966577</v>
+        <v>1.055697086010732</v>
       </c>
       <c r="F23">
-        <v>0.8767447633558794</v>
+        <v>1.06401752373338</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8831391596228602</v>
+        <v>1.057209264314162</v>
       </c>
       <c r="K23">
-        <v>0.8854422872492078</v>
+        <v>1.053634902454558</v>
       </c>
       <c r="L23">
-        <v>0.8926178700018209</v>
+        <v>1.059264825958131</v>
       </c>
       <c r="M23">
-        <v>0.8899009968551364</v>
+        <v>1.067555286184471</v>
       </c>
       <c r="N23">
-        <v>0.8843933185270022</v>
+        <v>1.058710622733086</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8563484850821151</v>
+        <v>1.056943920512944</v>
       </c>
       <c r="D24">
-        <v>0.8721991855410733</v>
+        <v>1.055913861185715</v>
       </c>
       <c r="E24">
-        <v>0.8795139826966577</v>
+        <v>1.061510041702205</v>
       </c>
       <c r="F24">
-        <v>0.8767447633558794</v>
+        <v>1.070232507874907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8831391596228602</v>
+        <v>1.062995860906221</v>
       </c>
       <c r="K24">
-        <v>0.8854422872492078</v>
+        <v>1.059215869985502</v>
       </c>
       <c r="L24">
-        <v>0.8926178700018209</v>
+        <v>1.064793430869574</v>
       </c>
       <c r="M24">
-        <v>0.8899009968551364</v>
+        <v>1.073487301203202</v>
       </c>
       <c r="N24">
-        <v>0.8843933185270022</v>
+        <v>1.064505436956037</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8563484850821151</v>
+        <v>1.064136719599562</v>
       </c>
       <c r="D25">
-        <v>0.8721991855410733</v>
+        <v>1.062577606536118</v>
       </c>
       <c r="E25">
-        <v>0.8795139826966577</v>
+        <v>1.068111258050262</v>
       </c>
       <c r="F25">
-        <v>0.8767447633558794</v>
+        <v>1.077295700824986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8831391596228602</v>
+        <v>1.069564138732758</v>
       </c>
       <c r="K25">
-        <v>0.8854422872492078</v>
+        <v>1.065548292893455</v>
       </c>
       <c r="L25">
-        <v>0.8926178700018209</v>
+        <v>1.071065588445654</v>
       </c>
       <c r="M25">
-        <v>0.8899009968551364</v>
+        <v>1.080223287716545</v>
       </c>
       <c r="N25">
-        <v>0.8843933185270022</v>
+        <v>1.07108304249048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_204/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.069761271434882</v>
+        <v>0.8411578215280988</v>
       </c>
       <c r="D2">
-        <v>1.067785388946211</v>
+        <v>0.8583029811561569</v>
       </c>
       <c r="E2">
-        <v>1.073269561572123</v>
+        <v>0.8657557195464367</v>
       </c>
       <c r="F2">
-        <v>1.082819363328977</v>
+        <v>0.8621430497729222</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.07469435766929</v>
+        <v>0.869407162454076</v>
       </c>
       <c r="K2">
-        <v>1.070492320365496</v>
+        <v>0.8721666837734549</v>
       </c>
       <c r="L2">
-        <v>1.075961869338507</v>
+        <v>0.8794671332686442</v>
       </c>
       <c r="M2">
-        <v>1.085486588178515</v>
+        <v>0.8759278510728065</v>
       </c>
       <c r="N2">
-        <v>1.076220546926347</v>
+        <v>0.870641820347156</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.073784900911161</v>
+        <v>0.8823592107182974</v>
       </c>
       <c r="D3">
-        <v>1.071509064804204</v>
+        <v>0.8960278820645091</v>
       </c>
       <c r="E3">
-        <v>1.076957498081294</v>
+        <v>0.9031115166354552</v>
       </c>
       <c r="F3">
-        <v>1.08677103995097</v>
+        <v>0.9017884205501542</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.078360888699483</v>
+        <v>0.906666154939648</v>
       </c>
       <c r="K3">
-        <v>1.074024634390174</v>
+        <v>0.9081900234271589</v>
       </c>
       <c r="L3">
-        <v>1.079459663349572</v>
+        <v>0.9151550870259132</v>
       </c>
       <c r="M3">
-        <v>1.089249426160168</v>
+        <v>0.9138539556731291</v>
       </c>
       <c r="N3">
-        <v>1.079892284851159</v>
+        <v>0.9079537248757238</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.076362090783612</v>
+        <v>0.9043742790968088</v>
       </c>
       <c r="D4">
-        <v>1.07389328218832</v>
+        <v>0.9162246006762897</v>
       </c>
       <c r="E4">
-        <v>1.079318663033244</v>
+        <v>0.9231166991317431</v>
       </c>
       <c r="F4">
-        <v>1.089302230544027</v>
+        <v>0.9230220240667654</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.080707745567634</v>
+        <v>0.926586458907101</v>
       </c>
       <c r="K4">
-        <v>1.076285050242309</v>
+        <v>0.9274516227700055</v>
       </c>
       <c r="L4">
-        <v>1.081697799192504</v>
+        <v>0.9342410559940386</v>
       </c>
       <c r="M4">
-        <v>1.091658474222222</v>
+        <v>0.9341477780222477</v>
       </c>
       <c r="N4">
-        <v>1.082242474525251</v>
+        <v>0.9279023179597015</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.07743944674907</v>
+        <v>0.9128696078399861</v>
       </c>
       <c r="D5">
-        <v>1.074889764089809</v>
+        <v>0.9240240542182456</v>
       </c>
       <c r="E5">
-        <v>1.080305469383535</v>
+        <v>0.9308430664535811</v>
       </c>
       <c r="F5">
-        <v>1.09036037608612</v>
+        <v>0.9312241168527916</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.081688428980049</v>
+        <v>0.9342738505063399</v>
       </c>
       <c r="K5">
-        <v>1.077229484796222</v>
+        <v>0.9348847302488272</v>
       </c>
       <c r="L5">
-        <v>1.082632879130794</v>
+        <v>0.9416068616637265</v>
       </c>
       <c r="M5">
-        <v>1.092665275982179</v>
+        <v>0.941982551188582</v>
       </c>
       <c r="N5">
-        <v>1.083224550620597</v>
+        <v>0.9356006265367672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.077619988369249</v>
+        <v>0.9142580042430323</v>
       </c>
       <c r="D6">
-        <v>1.075056740895711</v>
+        <v>0.9252989954957938</v>
       </c>
       <c r="E6">
-        <v>1.080470822488937</v>
+        <v>0.9321061013801084</v>
       </c>
       <c r="F6">
-        <v>1.090537699503248</v>
+        <v>0.9325650087775545</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.081852747741762</v>
+        <v>0.9355301831373156</v>
       </c>
       <c r="K6">
-        <v>1.0773877223674</v>
+        <v>0.9360994902787296</v>
       </c>
       <c r="L6">
-        <v>1.082789546670649</v>
+        <v>0.9428106428285237</v>
       </c>
       <c r="M6">
-        <v>1.092833978650146</v>
+        <v>0.9432631450594334</v>
       </c>
       <c r="N6">
-        <v>1.0833891027338</v>
+        <v>0.9368587433041823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.076376510130171</v>
+        <v>0.9044904661855671</v>
       </c>
       <c r="D7">
-        <v>1.073906619924005</v>
+        <v>0.9163312504991589</v>
       </c>
       <c r="E7">
-        <v>1.079331871424508</v>
+        <v>0.9232223465564605</v>
       </c>
       <c r="F7">
-        <v>1.089316392706307</v>
+        <v>0.9231341704937926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.080720872565408</v>
+        <v>0.9266915967844712</v>
       </c>
       <c r="K7">
-        <v>1.076297692531983</v>
+        <v>0.9275532837466351</v>
       </c>
       <c r="L7">
-        <v>1.081710316440782</v>
+        <v>0.9343417949687054</v>
       </c>
       <c r="M7">
-        <v>1.091671950315746</v>
+        <v>0.9342549192579404</v>
       </c>
       <c r="N7">
-        <v>1.082255620164867</v>
+        <v>0.9280076051449168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.071126668725626</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D8">
-        <v>1.069049174327533</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E8">
-        <v>1.074521252353222</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F8">
-        <v>1.084160324290596</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.075938910077688</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K8">
-        <v>1.071691425488777</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L8">
-        <v>1.077149295479844</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M8">
-        <v>1.086763716044525</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N8">
-        <v>1.077466866741916</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.061663718938187</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D9">
-        <v>1.060286977572874</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E9">
-        <v>1.065842217899969</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F9">
-        <v>1.074867182822569</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.067306791918153</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K9">
-        <v>1.063372311689238</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L9">
-        <v>1.068910423956395</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M9">
-        <v>1.077907974389677</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N9">
-        <v>1.068822489984478</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.05519785427093</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D10">
-        <v>1.054295611293698</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E10">
-        <v>1.059906854158195</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F10">
-        <v>1.068518011982954</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.061400184710705</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K10">
-        <v>1.057677090588838</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L10">
-        <v>1.063269155963709</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M10">
-        <v>1.07185131371572</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N10">
-        <v>1.062907494717297</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.052357348190431</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D11">
-        <v>1.051662558193424</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E11">
-        <v>1.057298213136341</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F11">
-        <v>1.065728960723681</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.058803370737038</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K11">
-        <v>1.055172552928916</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L11">
-        <v>1.060788115781958</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M11">
-        <v>1.069189243321587</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N11">
-        <v>1.060306992969929</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.051295830715829</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D12">
-        <v>1.050678419744675</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E12">
-        <v>1.05632316946924</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F12">
-        <v>1.064686703683364</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.057832623876866</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K12">
-        <v>1.054236202368447</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L12">
-        <v>1.059860515943885</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M12">
-        <v>1.068194210348589</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N12">
-        <v>1.05933486753787</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.051523825717757</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D13">
-        <v>1.050889801750513</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E13">
-        <v>1.056532599346114</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F13">
-        <v>1.064910560422093</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.058041136471595</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K13">
-        <v>1.054437331228016</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L13">
-        <v>1.060059766676769</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M13">
-        <v>1.068407934598043</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N13">
-        <v>1.059543676244399</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.052269735750746</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D14">
-        <v>1.05158133523092</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E14">
-        <v>1.057217741383966</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F14">
-        <v>1.06564293728982</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.058723256138749</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K14">
-        <v>1.055095279023089</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L14">
-        <v>1.06071156473617</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M14">
-        <v>1.069107122210939</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N14">
-        <v>1.060226764599721</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.052728454518375</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D15">
-        <v>1.052006594134751</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E15">
-        <v>1.057639065973708</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F15">
-        <v>1.066093337684767</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.05914270571262</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K15">
-        <v>1.055499851784162</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L15">
-        <v>1.061112351524428</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M15">
-        <v>1.069537081545365</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N15">
-        <v>1.060646809840099</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.055385485092562</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D16">
-        <v>1.054469518008764</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E16">
-        <v>1.060079144370747</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F16">
-        <v>1.06870224815731</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.061571676634513</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K16">
-        <v>1.057842474877156</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L16">
-        <v>1.063432983854576</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M16">
-        <v>1.072027130160851</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N16">
-        <v>1.063079230179307</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.057041050305958</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D17">
-        <v>1.056003874084444</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E17">
-        <v>1.061599215428059</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F17">
-        <v>1.070327882768646</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.063084611336228</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K17">
-        <v>1.059301451397464</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L17">
-        <v>1.064878204044377</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M17">
-        <v>1.073578298551096</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N17">
-        <v>1.064594313421834</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.058002803626233</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D18">
-        <v>1.056895118798757</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E18">
-        <v>1.062482143439307</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F18">
-        <v>1.071272266771258</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.063963316726029</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K18">
-        <v>1.060148755128849</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L18">
-        <v>1.065717496842224</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M18">
-        <v>1.074479278086787</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N18">
-        <v>1.065474266674078</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.058330082532018</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D19">
-        <v>1.057198387761434</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E19">
-        <v>1.062782579173821</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F19">
-        <v>1.07159363797398</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.064262302532386</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K19">
-        <v>1.060437045600964</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L19">
-        <v>1.066003057911242</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M19">
-        <v>1.074785854370917</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N19">
-        <v>1.065773677074574</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.056863830407798</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D20">
-        <v>1.055839638902445</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E20">
-        <v>1.061436511270897</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F20">
-        <v>1.070153864904629</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.062922679076663</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K20">
-        <v>1.059145300908941</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L20">
-        <v>1.064723528128731</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M20">
-        <v>1.073412266995192</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N20">
-        <v>1.064432151199888</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.052050263780349</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D21">
-        <v>1.051377866732292</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E21">
-        <v>1.057016154237538</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F21">
-        <v>1.065427446346162</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.058522561683257</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K21">
-        <v>1.054901699174301</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L21">
-        <v>1.060519795184712</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M21">
-        <v>1.068901403005153</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N21">
-        <v>1.060025785135082</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.048986436919784</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D22">
-        <v>1.048537100465998</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E22">
-        <v>1.054201585194992</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F22">
-        <v>1.062419272844666</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.055720159730902</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K22">
-        <v>1.052198408252214</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L22">
-        <v>1.057841704016116</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M22">
-        <v>1.066029096097795</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N22">
-        <v>1.057219403450515</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.050614275254111</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D23">
-        <v>1.05004650479813</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E23">
-        <v>1.055697086010732</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F23">
-        <v>1.06401752373338</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.057209264314162</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K23">
-        <v>1.053634902454558</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L23">
-        <v>1.059264825958131</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M23">
-        <v>1.067555286184471</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N23">
-        <v>1.058710622733086</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.056943920512944</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D24">
-        <v>1.055913861185715</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E24">
-        <v>1.061510041702205</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F24">
-        <v>1.070232507874907</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.062995860906221</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K24">
-        <v>1.059215869985502</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L24">
-        <v>1.064793430869574</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M24">
-        <v>1.073487301203202</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N24">
-        <v>1.064505436956037</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.064136719599562</v>
+        <v>0.856348485082115</v>
       </c>
       <c r="D25">
-        <v>1.062577606536118</v>
+        <v>0.8721991855410729</v>
       </c>
       <c r="E25">
-        <v>1.068111258050262</v>
+        <v>0.879513982696657</v>
       </c>
       <c r="F25">
-        <v>1.077295700824986</v>
+        <v>0.8767447633558789</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.069564138732758</v>
+        <v>0.8831391596228598</v>
       </c>
       <c r="K25">
-        <v>1.065548292893455</v>
+        <v>0.8854422872492071</v>
       </c>
       <c r="L25">
-        <v>1.071065588445654</v>
+        <v>0.8926178700018202</v>
       </c>
       <c r="M25">
-        <v>1.080223287716545</v>
+        <v>0.8899009968551358</v>
       </c>
       <c r="N25">
-        <v>1.07108304249048</v>
+        <v>0.8843933185270019</v>
       </c>
     </row>
   </sheetData>
